--- a/Story Tracker.xlsx
+++ b/Story Tracker.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SXV06051\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SXV06051\Desktop\Story Tracker\storytracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB56721-4A86-4E4B-97D8-81419CAAE06A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4363EAF3-C90C-42E7-89CA-51E4540882B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{05CA8E90-991F-40E9-9706-35AA1FB8F64C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="70">
   <si>
     <t>User Story</t>
   </si>
@@ -132,6 +132,120 @@
   </si>
   <si>
     <t>Spillover</t>
+  </si>
+  <si>
+    <t>2024-12 SPT</t>
+  </si>
+  <si>
+    <t>#486519</t>
+  </si>
+  <si>
+    <t>Edge labels</t>
+  </si>
+  <si>
+    <t>2024-13 SPT</t>
+  </si>
+  <si>
+    <t>#489972</t>
+  </si>
+  <si>
+    <t>Implement Modal dialog for auto update</t>
+  </si>
+  <si>
+    <t>2024-14 SPT</t>
+  </si>
+  <si>
+    <t>#551536</t>
+  </si>
+  <si>
+    <t>Delete Edge Labels</t>
+  </si>
+  <si>
+    <t>#486528</t>
+  </si>
+  <si>
+    <t>Bug Fix</t>
+  </si>
+  <si>
+    <t>2024-15 SPT</t>
+  </si>
+  <si>
+    <t>#552804</t>
+  </si>
+  <si>
+    <t>Background Image Fix</t>
+  </si>
+  <si>
+    <t>#489992</t>
+  </si>
+  <si>
+    <t>Implement: Show the Last check date and time</t>
+  </si>
+  <si>
+    <t>#559237</t>
+  </si>
+  <si>
+    <t>UTUX: Bug Fix - Issues in Resizing</t>
+  </si>
+  <si>
+    <t>#559498</t>
+  </si>
+  <si>
+    <t>UTUX:Implement automatic check on application launch</t>
+  </si>
+  <si>
+    <t>2024-16 SPT</t>
+  </si>
+  <si>
+    <t>#559868</t>
+  </si>
+  <si>
+    <t>Labels/Text on the Dialogs are not in sync</t>
+  </si>
+  <si>
+    <t>#559902</t>
+  </si>
+  <si>
+    <t>Symbols for 'Subnet' and 'Template' are incorrect</t>
+  </si>
+  <si>
+    <t>#560435</t>
+  </si>
+  <si>
+    <t>Device/Endpoint get the same name</t>
+  </si>
+  <si>
+    <t>#560447</t>
+  </si>
+  <si>
+    <t>Context Menu not coming on the links</t>
+  </si>
+  <si>
+    <t>#567691</t>
+  </si>
+  <si>
+    <t>UTUX: Template header shared component</t>
+  </si>
+  <si>
+    <t>2024-20 SPT</t>
+  </si>
+  <si>
+    <t>#570475</t>
+  </si>
+  <si>
+    <t>Last check, Download progress bug fix</t>
+  </si>
+  <si>
+    <t>#570523</t>
+  </si>
+  <si>
+    <t>Create shared component for 'Update Item'</t>
+  </si>
+  <si>
+    <t>#573752</t>
+  </si>
+  <si>
+    <t>Shared component for File Menu</t>
   </si>
 </sst>
 </file>
@@ -493,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3D7F721-DB1C-4D94-9DB3-36B4E817C8E3}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -772,6 +886,210 @@
         <v>Yes</v>
       </c>
     </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="I17"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" t="s">
+        <v>52</v>
+      </c>
+      <c r="I18"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" t="s">
+        <v>52</v>
+      </c>
+      <c r="I19"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" t="s">
+        <v>52</v>
+      </c>
+      <c r="I20"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" t="s">
+        <v>52</v>
+      </c>
+      <c r="I21"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" t="s">
+        <v>63</v>
+      </c>
+      <c r="I22"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" t="s">
+        <v>63</v>
+      </c>
+      <c r="I23"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" t="s">
+        <v>63</v>
+      </c>
+      <c r="I24"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I25"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Story Tracker.xlsx
+++ b/Story Tracker.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SXV06051\Desktop\Story Tracker\storytracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8007F9C6-5B1F-4A30-B509-1515AA32B956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C402FAD-547B-458D-8ABE-482437D2E302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300"/>
+    <workbookView xWindow="-2740" yWindow="370" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -20,8 +20,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" keepAlive="1" name="Query - My Work Cloned" description="Connection to the 'My Work Cloned' query in the workbook." type="5" refreshedVersion="0" background="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" keepAlive="1" name="Query - My Work Cloned" description="Connection to the 'My Work Cloned' query in the workbook." type="5" refreshedVersion="0" background="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=&quot;My Work Cloned&quot;;Extended Properties=&quot;&quot;" command="SELECT * FROM [My Work Cloned]"/>
   </connection>
 </connections>
@@ -225,7 +225,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -703,10 +703,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1063,18 +1066,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="81.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="13" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="7" width="13" style="3" customWidth="1"/>
     <col min="8" max="8" width="11.90625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.08984375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.54296875" customWidth="1"/>
@@ -1099,11 +1103,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="G1" t="s">
-        <v>62</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
@@ -1331,7 +1335,7 @@
         <v>21</v>
       </c>
       <c r="F7" s="2">
-        <v>45442</v>
+        <v>45429</v>
       </c>
       <c r="G7" s="2">
         <v>45455</v>
@@ -1368,8 +1372,12 @@
       <c r="E8" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="F8" s="2">
+        <v>45456</v>
+      </c>
+      <c r="G8" s="2">
+        <v>45469</v>
+      </c>
       <c r="H8" s="1">
         <v>45447.356736111113</v>
       </c>
@@ -1402,6 +1410,12 @@
       <c r="E9" t="s">
         <v>15</v>
       </c>
+      <c r="F9" s="2">
+        <v>45470</v>
+      </c>
+      <c r="G9" s="2">
+        <v>45483</v>
+      </c>
       <c r="H9" s="1">
         <v>45461</v>
       </c>
@@ -1434,6 +1448,12 @@
       <c r="E10" t="s">
         <v>15</v>
       </c>
+      <c r="F10" s="2">
+        <v>45470</v>
+      </c>
+      <c r="G10" s="2">
+        <v>45483</v>
+      </c>
       <c r="H10" s="1">
         <v>45471.511157407411</v>
       </c>
@@ -1466,6 +1486,12 @@
       <c r="E11" t="s">
         <v>15</v>
       </c>
+      <c r="F11" s="2">
+        <v>45470</v>
+      </c>
+      <c r="G11" s="2">
+        <v>45483</v>
+      </c>
       <c r="H11" s="1">
         <v>45481.411006944443</v>
       </c>
@@ -1498,6 +1524,12 @@
       <c r="E12" t="s">
         <v>23</v>
       </c>
+      <c r="F12" s="2">
+        <v>45484</v>
+      </c>
+      <c r="G12" s="2">
+        <v>45497</v>
+      </c>
       <c r="H12" s="1">
         <v>45491.268692129626</v>
       </c>
@@ -1530,6 +1562,12 @@
       <c r="E13" t="s">
         <v>23</v>
       </c>
+      <c r="F13" s="2">
+        <v>45484</v>
+      </c>
+      <c r="G13" s="2">
+        <v>45497</v>
+      </c>
       <c r="H13" s="1">
         <v>45481.488611111112</v>
       </c>
@@ -1562,6 +1600,12 @@
       <c r="E14" t="s">
         <v>41</v>
       </c>
+      <c r="F14" s="2">
+        <v>45498</v>
+      </c>
+      <c r="G14" s="2">
+        <v>45511</v>
+      </c>
       <c r="H14" s="1">
         <v>45498.457685185182</v>
       </c>
@@ -1594,6 +1638,12 @@
       <c r="E15" t="s">
         <v>41</v>
       </c>
+      <c r="F15" s="2">
+        <v>45498</v>
+      </c>
+      <c r="G15" s="2">
+        <v>45511</v>
+      </c>
       <c r="H15" s="1">
         <v>45504.299687500003</v>
       </c>
@@ -1626,6 +1676,12 @@
       <c r="E16" t="s">
         <v>41</v>
       </c>
+      <c r="F16" s="2">
+        <v>45498</v>
+      </c>
+      <c r="G16" s="2">
+        <v>45511</v>
+      </c>
       <c r="H16" s="1">
         <v>45503.357037037036</v>
       </c>
@@ -1658,6 +1714,12 @@
       <c r="E17" t="s">
         <v>48</v>
       </c>
+      <c r="F17" s="2">
+        <v>45512</v>
+      </c>
+      <c r="G17" s="2">
+        <v>45525</v>
+      </c>
       <c r="H17" s="1">
         <v>45511.410856481481</v>
       </c>
@@ -1690,6 +1752,12 @@
       <c r="E18" t="s">
         <v>48</v>
       </c>
+      <c r="F18" s="2">
+        <v>45512</v>
+      </c>
+      <c r="G18" s="2">
+        <v>45525</v>
+      </c>
       <c r="H18" s="1">
         <v>45509.717893518522</v>
       </c>
@@ -1722,6 +1790,12 @@
       <c r="E19" t="s">
         <v>48</v>
       </c>
+      <c r="F19" s="2">
+        <v>45512</v>
+      </c>
+      <c r="G19" s="2">
+        <v>45525</v>
+      </c>
       <c r="H19" s="1">
         <v>45511.427615740744</v>
       </c>
@@ -1754,6 +1828,12 @@
       <c r="E20" t="s">
         <v>48</v>
       </c>
+      <c r="F20" s="2">
+        <v>45512</v>
+      </c>
+      <c r="G20" s="2">
+        <v>45525</v>
+      </c>
       <c r="H20" s="1">
         <v>45510.3200462963</v>
       </c>
@@ -1786,6 +1866,12 @@
       <c r="E21" t="s">
         <v>12</v>
       </c>
+      <c r="F21" s="2">
+        <v>45554</v>
+      </c>
+      <c r="G21" s="2">
+        <v>45581</v>
+      </c>
       <c r="H21" s="1">
         <v>45568.488125000003</v>
       </c>
@@ -1815,6 +1901,12 @@
       <c r="E22" t="s">
         <v>12</v>
       </c>
+      <c r="F22" s="2">
+        <v>45554</v>
+      </c>
+      <c r="G22" s="2">
+        <v>45581</v>
+      </c>
       <c r="H22" s="1">
         <v>45566.468634259261</v>
       </c>
@@ -1847,6 +1939,12 @@
       <c r="E23" t="s">
         <v>12</v>
       </c>
+      <c r="F23" s="2">
+        <v>45554</v>
+      </c>
+      <c r="G23" s="2">
+        <v>45581</v>
+      </c>
       <c r="H23" s="1">
         <v>45551.482673611114</v>
       </c>
@@ -1879,6 +1977,12 @@
       <c r="E24" t="s">
         <v>12</v>
       </c>
+      <c r="F24" s="2">
+        <v>45554</v>
+      </c>
+      <c r="G24" s="2">
+        <v>45581</v>
+      </c>
       <c r="H24" s="1">
         <v>45565.331655092596</v>
       </c>
@@ -1910,6 +2014,12 @@
       </c>
       <c r="E25" t="s">
         <v>12</v>
+      </c>
+      <c r="F25" s="2">
+        <v>45554</v>
+      </c>
+      <c r="G25" s="2">
+        <v>45581</v>
       </c>
       <c r="H25" s="1">
         <v>45562.391215277778</v>

--- a/Story Tracker.xlsx
+++ b/Story Tracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SXV06051\Desktop\Story Tracker\storytracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C402FAD-547B-458D-8ABE-482437D2E302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4848A7-8219-4F54-B1D7-11F9BE8D2B36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2740" yWindow="370" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="80">
   <si>
     <t>Entity Type</t>
   </si>
@@ -220,6 +220,54 @@
   </si>
   <si>
     <t>Sprint End</t>
+  </si>
+  <si>
+    <t>UI screen implementation for opening existing.new project file</t>
+  </si>
+  <si>
+    <t>2024-21 Crafters</t>
+  </si>
+  <si>
+    <t>[UTUX] Planner Landing Screen</t>
+  </si>
+  <si>
+    <t>Minor Fixes for Template Header</t>
+  </si>
+  <si>
+    <t>Implement the error handling - non-existent files (renamed/deleted file which is present in the recent list)</t>
+  </si>
+  <si>
+    <t>2024-22 Crafters</t>
+  </si>
+  <si>
+    <t>Mechanism to persist recently saved files (Electron mode)</t>
+  </si>
+  <si>
+    <t>NewFileDialog component with project name input</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Theme colors on View Option component do not match the figma design</t>
+  </si>
+  <si>
+    <t>Fix timestamp issue and change button color from secondary to primary in ExplorerHome</t>
+  </si>
+  <si>
+    <t>fixed theme issues in FileOverview and UpdateItem</t>
+  </si>
+  <si>
+    <t>Sync ReactFlow canvas data with Backend</t>
+  </si>
+  <si>
+    <t>2024-23 Crafters</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>NewFileDialog Input Validation</t>
   </si>
 </sst>
 </file>
@@ -771,9 +819,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -811,7 +859,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -917,7 +965,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1059,7 +1107,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1067,27 +1115,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="81.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="3" max="3" width="81.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="13" style="3" customWidth="1"/>
-    <col min="8" max="8" width="11.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.54296875" customWidth="1"/>
-    <col min="11" max="11" width="10.08984375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="104.36328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.08984375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="104.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1128,7 +1176,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1166,7 +1214,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1204,7 +1252,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1242,7 +1290,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1280,7 +1328,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1318,7 +1366,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1356,7 +1404,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1394,7 +1442,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1432,7 +1480,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1470,7 +1518,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1508,7 +1556,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -1546,7 +1594,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -1584,7 +1632,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -1622,7 +1670,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -1660,7 +1708,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -1698,7 +1746,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -1736,7 +1784,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -1774,7 +1822,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -1812,7 +1860,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -1850,7 +1898,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -1885,7 +1933,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -1923,7 +1971,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -1961,7 +2009,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -1999,7 +2047,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -2035,6 +2083,406 @@
       </c>
       <c r="L25" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26">
+        <v>499835</v>
+      </c>
+      <c r="C26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
+      <c r="E26" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" s="2">
+        <v>45582</v>
+      </c>
+      <c r="G26" s="2">
+        <v>45595</v>
+      </c>
+      <c r="H26" s="2">
+        <v>45582.396909722222</v>
+      </c>
+      <c r="I26" s="2">
+        <v>45587.34884259259</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27">
+        <v>573839</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27" s="2">
+        <v>45582</v>
+      </c>
+      <c r="G27" s="2">
+        <v>45595</v>
+      </c>
+      <c r="H27" s="2">
+        <v>45568.488125000003</v>
+      </c>
+      <c r="I27" s="2">
+        <v>45583.296805555554</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28">
+        <v>577601</v>
+      </c>
+      <c r="C28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28" t="s">
+        <v>65</v>
+      </c>
+      <c r="F28" s="2">
+        <v>45582</v>
+      </c>
+      <c r="G28" s="2">
+        <v>45595</v>
+      </c>
+      <c r="H28" s="2">
+        <v>45583</v>
+      </c>
+      <c r="I28" s="2">
+        <v>45586.459861111114</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29">
+        <v>499821</v>
+      </c>
+      <c r="C29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29" t="s">
+        <v>69</v>
+      </c>
+      <c r="F29" s="2">
+        <v>45596</v>
+      </c>
+      <c r="G29" s="2">
+        <v>45609</v>
+      </c>
+      <c r="H29" s="2">
+        <v>45606.601064814815</v>
+      </c>
+      <c r="I29" s="2">
+        <v>45607.469409722224</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30">
+        <v>499838</v>
+      </c>
+      <c r="C30" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30" t="s">
+        <v>69</v>
+      </c>
+      <c r="F30" s="2">
+        <v>45596</v>
+      </c>
+      <c r="G30" s="2">
+        <v>45609</v>
+      </c>
+      <c r="H30" s="2">
+        <v>45590.355266203704</v>
+      </c>
+      <c r="I30" s="2">
+        <v>45607.469490740739</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31">
+        <v>570110</v>
+      </c>
+      <c r="C31" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31" t="s">
+        <v>69</v>
+      </c>
+      <c r="F31" s="2">
+        <v>45596</v>
+      </c>
+      <c r="G31" s="2">
+        <v>45609</v>
+      </c>
+      <c r="H31" s="2">
+        <v>45603.555694444447</v>
+      </c>
+      <c r="I31" s="2">
+        <v>45604.484988425924</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32">
+        <v>580373</v>
+      </c>
+      <c r="C32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>69</v>
+      </c>
+      <c r="F32" s="2">
+        <v>45596</v>
+      </c>
+      <c r="G32" s="2">
+        <v>45609</v>
+      </c>
+      <c r="H32" s="2">
+        <v>45600.529756944445</v>
+      </c>
+      <c r="I32" s="2">
+        <v>45600.666527777779</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33">
+        <v>580423</v>
+      </c>
+      <c r="C33" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33" t="s">
+        <v>69</v>
+      </c>
+      <c r="F33" s="2">
+        <v>45596</v>
+      </c>
+      <c r="G33" s="2">
+        <v>45609</v>
+      </c>
+      <c r="H33" s="2">
+        <v>45600.730266203704</v>
+      </c>
+      <c r="I33" s="2">
+        <v>45601.399421296293</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34">
+        <v>580732</v>
+      </c>
+      <c r="C34" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34" t="s">
+        <v>69</v>
+      </c>
+      <c r="F34" s="2">
+        <v>45596</v>
+      </c>
+      <c r="G34" s="2">
+        <v>45609</v>
+      </c>
+      <c r="H34" s="2">
+        <v>45602.225624999999</v>
+      </c>
+      <c r="I34" s="2">
+        <v>45602.225624999999</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35">
+        <v>583031</v>
+      </c>
+      <c r="C35" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35" t="s">
+        <v>77</v>
+      </c>
+      <c r="F35" s="2">
+        <v>45610</v>
+      </c>
+      <c r="G35" s="2">
+        <v>45623</v>
+      </c>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36">
+        <v>582185</v>
+      </c>
+      <c r="C36" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36" t="s">
+        <v>77</v>
+      </c>
+      <c r="F36" s="2">
+        <v>45610</v>
+      </c>
+      <c r="G36" s="2">
+        <v>45623</v>
+      </c>
+      <c r="H36" s="2">
+        <v>45610.254699074074</v>
+      </c>
+      <c r="I36" s="2"/>
+      <c r="J36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L36" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/Story Tracker.xlsx
+++ b/Story Tracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SXV06051\Desktop\Story Tracker\storytracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4848A7-8219-4F54-B1D7-11F9BE8D2B36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C914F0-E880-48F8-9D8A-D6E62B9E94FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="84">
   <si>
     <t>Entity Type</t>
   </si>
@@ -258,16 +258,28 @@
     <t>fixed theme issues in FileOverview and UpdateItem</t>
   </si>
   <si>
-    <t>Sync ReactFlow canvas data with Backend</t>
-  </si>
-  <si>
     <t>2024-23 Crafters</t>
   </si>
   <si>
-    <t>Open</t>
-  </si>
-  <si>
     <t>NewFileDialog Input Validation</t>
+  </si>
+  <si>
+    <t>Export topology PDF: Improve the pdf quality</t>
+  </si>
+  <si>
+    <t>Implement PDF Preview for Topology</t>
+  </si>
+  <si>
+    <t>'Invalid character like +' '-'  for page no. should not be allowed.</t>
+  </si>
+  <si>
+    <t>Provide a valid date limit in date field.</t>
+  </si>
+  <si>
+    <t>2024-24 Crafters</t>
+  </si>
+  <si>
+    <t>[PLAN] Export to PDF for 1.11</t>
   </si>
 </sst>
 </file>
@@ -1115,10 +1127,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2423,16 +2435,16 @@
         <v>8</v>
       </c>
       <c r="B35">
-        <v>583031</v>
+        <v>582185</v>
       </c>
       <c r="C35" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D35">
         <v>2</v>
       </c>
       <c r="E35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F35" s="2">
         <v>45610</v>
@@ -2440,13 +2452,20 @@
       <c r="G35" s="2">
         <v>45623</v>
       </c>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
+      <c r="H35" s="1">
+        <v>45610.254699074074</v>
+      </c>
+      <c r="I35" s="1">
+        <v>45621.271562499998</v>
+      </c>
       <c r="J35" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>60</v>
+      </c>
+      <c r="L35" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -2454,35 +2473,151 @@
         <v>8</v>
       </c>
       <c r="B36">
-        <v>582185</v>
+        <v>583029</v>
       </c>
       <c r="C36" t="s">
+        <v>78</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>82</v>
+      </c>
+      <c r="F36" s="2">
+        <v>45624</v>
+      </c>
+      <c r="G36" s="2">
+        <v>45637</v>
+      </c>
+      <c r="H36" s="1">
+        <v>45624.337129629632</v>
+      </c>
+      <c r="I36" s="1">
+        <v>45625.345833333333</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L36" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37">
+        <v>587441</v>
+      </c>
+      <c r="C37" t="s">
         <v>79</v>
       </c>
-      <c r="D36">
+      <c r="D37">
         <v>2</v>
       </c>
-      <c r="E36" t="s">
-        <v>77</v>
-      </c>
-      <c r="F36" s="2">
-        <v>45610</v>
-      </c>
-      <c r="G36" s="2">
-        <v>45623</v>
-      </c>
-      <c r="H36" s="2">
-        <v>45610.254699074074</v>
-      </c>
-      <c r="I36" s="2"/>
-      <c r="J36" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="L36" t="s">
-        <v>66</v>
+      <c r="E37" t="s">
+        <v>82</v>
+      </c>
+      <c r="F37" s="2">
+        <v>45624</v>
+      </c>
+      <c r="G37" s="2">
+        <v>45637</v>
+      </c>
+      <c r="H37" s="1">
+        <v>45625.276493055557</v>
+      </c>
+      <c r="I37" s="1">
+        <v>45625.789884259262</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>587527</v>
+      </c>
+      <c r="C38" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>82</v>
+      </c>
+      <c r="F38" s="2">
+        <v>45624</v>
+      </c>
+      <c r="G38" s="2">
+        <v>45637</v>
+      </c>
+      <c r="H38" s="1">
+        <v>45625.781909722224</v>
+      </c>
+      <c r="I38" s="1">
+        <v>45635.413553240738</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L38" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39">
+        <v>587535</v>
+      </c>
+      <c r="C39" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>82</v>
+      </c>
+      <c r="F39" s="2">
+        <v>45624</v>
+      </c>
+      <c r="G39" s="2">
+        <v>45637</v>
+      </c>
+      <c r="H39" s="1">
+        <v>45625.78162037037</v>
+      </c>
+      <c r="I39" s="1">
+        <v>45629.454699074071</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L39" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
